--- a/sofaplayer/Ligue_1/Le Havre_stats.xlsx
+++ b/sofaplayer/Ligue_1/Le Havre_stats.xlsx
@@ -1035,16 +1035,16 @@
         <v>825088</v>
       </c>
       <c r="E2" t="n">
-        <v>6.3071428571429</v>
+        <v>6.3266666666667</v>
       </c>
       <c r="F2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" t="n">
         <v>10</v>
       </c>
       <c r="H2" t="n">
-        <v>832</v>
+        <v>857</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -1101,40 +1101,40 @@
         <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.73529636</v>
+        <v>0.73614597</v>
       </c>
       <c r="AB2" t="n">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="AC2" t="n">
         <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE2" t="n">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="AF2" t="n">
-        <v>67.549668874172</v>
+        <v>67.948717948718</v>
       </c>
       <c r="AG2" t="n">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="AH2" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI2" t="n">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AJ2" t="n">
         <v>43</v>
       </c>
       <c r="AK2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AL2" t="n">
-        <v>50</v>
+        <v>54.545454545455</v>
       </c>
       <c r="AM2" t="n">
         <v>1</v>
@@ -1146,19 +1146,19 @@
         <v>3</v>
       </c>
       <c r="AP2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AQ2" t="n">
         <v>7</v>
       </c>
       <c r="AR2" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AS2" t="n">
         <v>7</v>
       </c>
       <c r="AT2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU2" t="n">
         <v>4</v>
@@ -1176,34 +1176,34 @@
         <v>4</v>
       </c>
       <c r="AZ2" t="n">
-        <v>36.363636363636</v>
+        <v>33.333333333333</v>
       </c>
       <c r="BA2" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="BB2" t="n">
-        <v>34.848484848485</v>
+        <v>35.211267605634</v>
       </c>
       <c r="BC2" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="BD2" t="n">
-        <v>27.777777777778</v>
+        <v>29.487179487179</v>
       </c>
       <c r="BE2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BF2" t="n">
-        <v>43.333333333333</v>
+        <v>42.1875</v>
       </c>
       <c r="BG2" t="n">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="BH2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BI2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BJ2" t="n">
         <v>5</v>
@@ -1227,16 +1227,16 @@
         <v>0</v>
       </c>
       <c r="BQ2" t="n">
-        <v>88.3</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="BR2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BS2" t="n">
         <v>0</v>
       </c>
       <c r="BT2" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="BU2" t="n">
         <v>0</v>
@@ -1260,13 +1260,13 @@
         <v>3</v>
       </c>
       <c r="CB2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="CC2" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="CD2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CE2" t="n">
         <v>0</v>
@@ -1308,19 +1308,19 @@
         <v>0</v>
       </c>
       <c r="CR2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="CS2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CT2" t="n">
         <v>5</v>
       </c>
       <c r="CU2" t="n">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="CV2" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="CW2" t="n">
         <v>0</v>
@@ -1332,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="CZ2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="DA2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="DB2" t="n">
-        <v>40</v>
+        <v>42.857142857143</v>
       </c>
       <c r="DC2" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="DF2" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="DG2" t="n">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="DH2" t="n">
         <v>0</v>
@@ -1391,31 +1391,31 @@
         <v>257205</v>
       </c>
       <c r="E3" t="n">
-        <v>6.575</v>
+        <v>6.76</v>
       </c>
       <c r="F3" t="n">
+        <v>5</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3</v>
+      </c>
+      <c r="H3" t="n">
+        <v>249</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.1083</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>4</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2</v>
-      </c>
-      <c r="H3" t="n">
-        <v>184</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.0968</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>3</v>
       </c>
       <c r="N3" t="n">
         <v>2</v>
@@ -1454,67 +1454,67 @@
         <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.39353076</v>
+        <v>0.43861646</v>
       </c>
       <c r="AB3" t="n">
-        <v>144</v>
+        <v>189</v>
       </c>
       <c r="AC3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE3" t="n">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="AF3" t="n">
-        <v>71.79487179487199</v>
+        <v>73.529411764706</v>
       </c>
       <c r="AG3" t="n">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AH3" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="AI3" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AJ3" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AK3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AL3" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="AM3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>29.411764705882</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>22</v>
+      </c>
+      <c r="AS3" t="n">
         <v>4</v>
       </c>
-      <c r="AN3" t="n">
-        <v>25</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>4</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>3</v>
-      </c>
       <c r="AT3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU3" t="n">
         <v>1</v>
@@ -1529,94 +1529,94 @@
         <v>0</v>
       </c>
       <c r="AY3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AZ3" t="n">
-        <v>30.769230769231</v>
+        <v>33.333333333333</v>
       </c>
       <c r="BA3" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="BB3" t="n">
-        <v>38.888888888889</v>
+        <v>45.098039215686</v>
       </c>
       <c r="BC3" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="BD3" t="n">
-        <v>37.142857142857</v>
+        <v>42.857142857143</v>
       </c>
       <c r="BE3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF3" t="n">
         <v>100</v>
       </c>
       <c r="BG3" t="n">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="BH3" t="n">
         <v>6</v>
       </c>
       <c r="BI3" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>4</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="BR3" t="n">
         <v>5</v>
       </c>
-      <c r="BJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ3" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="BR3" t="n">
+      <c r="BS3" t="n">
+        <v>2</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>27</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA3" t="n">
         <v>4</v>
       </c>
-      <c r="BS3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT3" t="n">
-        <v>22</v>
-      </c>
-      <c r="BU3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA3" t="n">
-        <v>3</v>
-      </c>
       <c r="CB3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="CC3" t="n">
         <v>3</v>
@@ -1640,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="CJ3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CK3" t="n">
         <v>1</v>
@@ -1664,16 +1664,16 @@
         <v>0</v>
       </c>
       <c r="CR3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CS3" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="CT3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="CU3" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="CV3" t="n">
         <v>0</v>
@@ -1688,13 +1688,13 @@
         <v>0</v>
       </c>
       <c r="CZ3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="DA3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="DB3" t="n">
-        <v>100</v>
+        <v>83.333333333333</v>
       </c>
       <c r="DC3" t="n">
         <v>0</v>
@@ -1706,10 +1706,10 @@
         <v>0</v>
       </c>
       <c r="DF3" t="n">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="DG3" t="n">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="DH3" t="n">
         <v>0</v>
@@ -1747,40 +1747,40 @@
         <v>1001458</v>
       </c>
       <c r="E4" t="n">
-        <v>7.0428571428571</v>
+        <v>7.1590909090909</v>
       </c>
       <c r="F4" t="n">
+        <v>22</v>
+      </c>
+      <c r="G4" t="n">
         <v>21</v>
       </c>
-      <c r="G4" t="n">
-        <v>20</v>
-      </c>
       <c r="H4" t="n">
-        <v>1779</v>
+        <v>1869</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K4" t="n">
-        <v>9.3573</v>
+        <v>10.4082</v>
       </c>
       <c r="L4" t="n">
-        <v>444.75</v>
+        <v>311.5</v>
       </c>
       <c r="M4" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="N4" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="O4" t="n">
         <v>12</v>
       </c>
       <c r="P4" t="n">
-        <v>8.3333333333333</v>
+        <v>12</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -1792,19 +1792,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y4" t="n">
         <v>4</v>
@@ -1813,10 +1813,10 @@
         <v>2</v>
       </c>
       <c r="AA4" t="n">
-        <v>2.16784869</v>
+        <v>2.16903797</v>
       </c>
       <c r="AB4" t="n">
-        <v>802</v>
+        <v>848</v>
       </c>
       <c r="AC4" t="n">
         <v>6</v>
@@ -1825,19 +1825,19 @@
         <v>18</v>
       </c>
       <c r="AE4" t="n">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="AF4" t="n">
-        <v>73.58024691358</v>
+        <v>71.896955503513</v>
       </c>
       <c r="AG4" t="n">
-        <v>405</v>
+        <v>427</v>
       </c>
       <c r="AH4" t="n">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AI4" t="n">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="AJ4" t="n">
         <v>102</v>
@@ -1852,25 +1852,25 @@
         <v>8</v>
       </c>
       <c r="AN4" t="n">
-        <v>17.391304347826</v>
+        <v>17.021276595745</v>
       </c>
       <c r="AO4" t="n">
         <v>7</v>
       </c>
       <c r="AP4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ4" t="n">
         <v>13</v>
       </c>
       <c r="AR4" t="n">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="AS4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AT4" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AU4" t="n">
         <v>7</v>
@@ -1885,40 +1885,40 @@
         <v>0</v>
       </c>
       <c r="AY4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ4" t="n">
-        <v>45.238095238095</v>
+        <v>44.444444444444</v>
       </c>
       <c r="BA4" t="n">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="BB4" t="n">
-        <v>50.980392156863</v>
+        <v>51.359516616314</v>
       </c>
       <c r="BC4" t="n">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="BD4" t="n">
-        <v>47.727272727273</v>
+        <v>48.128342245989</v>
       </c>
       <c r="BE4" t="n">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="BF4" t="n">
-        <v>55.384615384615</v>
+        <v>55.555555555556</v>
       </c>
       <c r="BG4" t="n">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="BH4" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="BI4" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="BJ4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BK4" t="n">
         <v>2</v>
@@ -1933,22 +1933,22 @@
         <v>5</v>
       </c>
       <c r="BO4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BP4" t="n">
         <v>0</v>
       </c>
       <c r="BQ4" t="n">
-        <v>147.9</v>
+        <v>157.5</v>
       </c>
       <c r="BR4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BS4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BT4" t="n">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="BU4" t="n">
         <v>0</v>
@@ -1966,10 +1966,10 @@
         <v>1</v>
       </c>
       <c r="BZ4" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="CA4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="CB4" t="n">
         <v>32</v>
@@ -1996,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="CJ4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="CK4" t="n">
         <v>1</v>
@@ -2023,16 +2023,16 @@
         <v>18</v>
       </c>
       <c r="CS4" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="CT4" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="CU4" t="n">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="CV4" t="n">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="CW4" t="n">
         <v>1</v>
@@ -2047,10 +2047,10 @@
         <v>19</v>
       </c>
       <c r="DA4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="DB4" t="n">
-        <v>50</v>
+        <v>52.380952380952</v>
       </c>
       <c r="DC4" t="n">
         <v>0</v>
@@ -2062,16 +2062,16 @@
         <v>0</v>
       </c>
       <c r="DF4" t="n">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="DG4" t="n">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="DH4" t="n">
         <v>0</v>
       </c>
       <c r="DI4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="DJ4" t="n">
         <v>2139441</v>
@@ -3530,13 +3530,13 @@
         <v>6.4888888888889</v>
       </c>
       <c r="F9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G9" t="n">
         <v>12</v>
       </c>
       <c r="H9" t="n">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>1.3334</v>
       </c>
       <c r="L9" t="n">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="M9" t="n">
         <v>16</v>
@@ -3593,10 +3593,10 @@
         <v>1</v>
       </c>
       <c r="AA9" t="n">
-        <v>1.46844927</v>
+        <v>1.46988944</v>
       </c>
       <c r="AB9" t="n">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AC9" t="n">
         <v>3</v>
@@ -3605,28 +3605,28 @@
         <v>9</v>
       </c>
       <c r="AE9" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF9" t="n">
-        <v>78.274760383387</v>
+        <v>78.343949044586</v>
       </c>
       <c r="AG9" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AH9" t="n">
         <v>108</v>
       </c>
       <c r="AI9" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AJ9" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL9" t="n">
-        <v>35</v>
+        <v>38.095238095238</v>
       </c>
       <c r="AM9" t="n">
         <v>6</v>
@@ -3755,10 +3755,10 @@
         <v>13</v>
       </c>
       <c r="CC9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="CD9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CE9" t="n">
         <v>0</v>
@@ -3824,7 +3824,7 @@
         <v>0</v>
       </c>
       <c r="CZ9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="DA9" t="n">
         <v>13</v>
@@ -3845,7 +3845,7 @@
         <v>124</v>
       </c>
       <c r="DG9" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DH9" t="n">
         <v>0</v>
@@ -3883,16 +3883,16 @@
         <v>992026</v>
       </c>
       <c r="E10" t="n">
-        <v>7.0095238095238</v>
+        <v>7.0181818181818</v>
       </c>
       <c r="F10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H10" t="n">
-        <v>1540</v>
+        <v>1629</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
@@ -3901,13 +3901,13 @@
         <v>3</v>
       </c>
       <c r="K10" t="n">
-        <v>1.8794</v>
+        <v>1.9785</v>
       </c>
       <c r="L10" t="n">
-        <v>513.33333333333</v>
+        <v>543</v>
       </c>
       <c r="M10" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N10" t="n">
         <v>6</v>
@@ -3916,7 +3916,7 @@
         <v>2</v>
       </c>
       <c r="P10" t="n">
-        <v>15</v>
+        <v>13.636363636364</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -3949,10 +3949,10 @@
         <v>3</v>
       </c>
       <c r="AA10" t="n">
-        <v>1.72533434</v>
+        <v>1.72837093</v>
       </c>
       <c r="AB10" t="n">
-        <v>796</v>
+        <v>848</v>
       </c>
       <c r="AC10" t="n">
         <v>4</v>
@@ -3961,55 +3961,55 @@
         <v>20</v>
       </c>
       <c r="AE10" t="n">
-        <v>446</v>
+        <v>467</v>
       </c>
       <c r="AF10" t="n">
-        <v>85.44061302682</v>
+        <v>84.90909090909101</v>
       </c>
       <c r="AG10" t="n">
-        <v>522</v>
+        <v>550</v>
       </c>
       <c r="AH10" t="n">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="AI10" t="n">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="AJ10" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AK10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL10" t="n">
-        <v>62.962962962963</v>
+        <v>61.290322580645</v>
       </c>
       <c r="AM10" t="n">
         <v>12</v>
       </c>
       <c r="AN10" t="n">
-        <v>17.910447761194</v>
+        <v>17.647058823529</v>
       </c>
       <c r="AO10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>44</v>
+      </c>
+      <c r="AQ10" t="n">
         <v>8</v>
       </c>
-      <c r="AP10" t="n">
-        <v>40</v>
-      </c>
-      <c r="AQ10" t="n">
+      <c r="AR10" t="n">
+        <v>95</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>27</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>14</v>
+      </c>
+      <c r="AU10" t="n">
         <v>7</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>89</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>25</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>6</v>
       </c>
       <c r="AV10" t="n">
         <v>0</v>
@@ -4024,34 +4024,34 @@
         <v>12</v>
       </c>
       <c r="AZ10" t="n">
-        <v>52.173913043478</v>
+        <v>48</v>
       </c>
       <c r="BA10" t="n">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="BB10" t="n">
-        <v>52.941176470588</v>
+        <v>53.614457831325</v>
       </c>
       <c r="BC10" t="n">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="BD10" t="n">
-        <v>55.813953488372</v>
+        <v>56.428571428571</v>
       </c>
       <c r="BE10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BF10" t="n">
-        <v>37.5</v>
+        <v>38.461538461538</v>
       </c>
       <c r="BG10" t="n">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="BH10" t="n">
         <v>12</v>
       </c>
       <c r="BI10" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="BJ10" t="n">
         <v>1</v>
@@ -4069,28 +4069,28 @@
         <v>2</v>
       </c>
       <c r="BO10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BP10" t="n">
         <v>0</v>
       </c>
       <c r="BQ10" t="n">
-        <v>147.2</v>
+        <v>154.4</v>
       </c>
       <c r="BR10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BS10" t="n">
         <v>6</v>
       </c>
       <c r="BT10" t="n">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="BU10" t="n">
         <v>0</v>
       </c>
       <c r="BV10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BW10" t="n">
         <v>0</v>
@@ -4105,13 +4105,13 @@
         <v>10</v>
       </c>
       <c r="CA10" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="CB10" t="n">
         <v>9</v>
       </c>
       <c r="CC10" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="CD10" t="n">
         <v>14</v>
@@ -4132,7 +4132,7 @@
         <v>0</v>
       </c>
       <c r="CJ10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="CK10" t="n">
         <v>1</v>
@@ -4159,16 +4159,16 @@
         <v>20</v>
       </c>
       <c r="CS10" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="CT10" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="CU10" t="n">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="CV10" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="CW10" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="CZ10" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="DA10" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="DB10" t="n">
         <v>50</v>
@@ -4198,10 +4198,10 @@
         <v>0</v>
       </c>
       <c r="DF10" t="n">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="DG10" t="n">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="DH10" t="n">
         <v>0</v>
@@ -4595,16 +4595,16 @@
         <v>1012657</v>
       </c>
       <c r="E12" t="n">
-        <v>6.9666666666667</v>
+        <v>6.95</v>
       </c>
       <c r="F12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H12" t="n">
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -4661,10 +4661,10 @@
         <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.0618725</v>
+        <v>0.06770848</v>
       </c>
       <c r="AB12" t="n">
-        <v>170</v>
+        <v>199</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
@@ -4673,28 +4673,28 @@
         <v>2</v>
       </c>
       <c r="AE12" t="n">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="AF12" t="n">
-        <v>85.950413223141</v>
+        <v>87.21804511278199</v>
       </c>
       <c r="AG12" t="n">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="AH12" t="n">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="AI12" t="n">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AJ12" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AK12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL12" t="n">
-        <v>80</v>
+        <v>81.818181818182</v>
       </c>
       <c r="AM12" t="n">
         <v>0</v>
@@ -4703,22 +4703,22 @@
         <v>0</v>
       </c>
       <c r="AO12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AP12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ12" t="n">
         <v>0</v>
       </c>
       <c r="AR12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AS12" t="n">
         <v>5</v>
       </c>
       <c r="AT12" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -4739,31 +4739,31 @@
         <v>50</v>
       </c>
       <c r="BA12" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="BB12" t="n">
-        <v>51.515151515152</v>
+        <v>52.631578947368</v>
       </c>
       <c r="BC12" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="BD12" t="n">
-        <v>50</v>
+        <v>52.941176470588</v>
       </c>
       <c r="BE12" t="n">
         <v>2</v>
       </c>
       <c r="BF12" t="n">
-        <v>66.666666666667</v>
+        <v>50</v>
       </c>
       <c r="BG12" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="BH12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BI12" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BJ12" t="n">
         <v>0</v>
@@ -4781,16 +4781,16 @@
         <v>1</v>
       </c>
       <c r="BO12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BP12" t="n">
         <v>0</v>
       </c>
       <c r="BQ12" t="n">
-        <v>20.9</v>
+        <v>27.8</v>
       </c>
       <c r="BR12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BS12" t="n">
         <v>0</v>
@@ -4823,10 +4823,10 @@
         <v>2</v>
       </c>
       <c r="CC12" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CD12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CE12" t="n">
         <v>0</v>
@@ -4844,7 +4844,7 @@
         <v>0</v>
       </c>
       <c r="CJ12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CK12" t="n">
         <v>1</v>
@@ -4877,10 +4877,10 @@
         <v>0</v>
       </c>
       <c r="CU12" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="CV12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CW12" t="n">
         <v>0</v>
@@ -4892,13 +4892,13 @@
         <v>0</v>
       </c>
       <c r="CZ12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="DA12" t="n">
         <v>2</v>
       </c>
       <c r="DB12" t="n">
-        <v>40</v>
+        <v>33.333333333333</v>
       </c>
       <c r="DC12" t="n">
         <v>0</v>
@@ -4910,16 +4910,16 @@
         <v>0</v>
       </c>
       <c r="DF12" t="n">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="DG12" t="n">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="DH12" t="n">
         <v>0</v>
       </c>
       <c r="DI12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="DJ12" t="n">
         <v>2608179</v>
@@ -5307,16 +5307,16 @@
         <v>1490783</v>
       </c>
       <c r="E14" t="n">
-        <v>6.6055555555556</v>
+        <v>6.5894736842105</v>
       </c>
       <c r="F14" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H14" t="n">
-        <v>984</v>
+        <v>1049</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -5373,34 +5373,34 @@
         <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.2605699</v>
+        <v>0.2760783</v>
       </c>
       <c r="AB14" t="n">
-        <v>448</v>
+        <v>481</v>
       </c>
       <c r="AC14" t="n">
         <v>1</v>
       </c>
       <c r="AD14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE14" t="n">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="AF14" t="n">
-        <v>77.443609022556</v>
+        <v>77.73851590106</v>
       </c>
       <c r="AG14" t="n">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="AH14" t="n">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="AI14" t="n">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="AJ14" t="n">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="AK14" t="n">
         <v>5</v>
@@ -5415,22 +5415,22 @@
         <v>0</v>
       </c>
       <c r="AO14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP14" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AQ14" t="n">
         <v>6</v>
       </c>
       <c r="AR14" t="n">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="AS14" t="n">
         <v>2</v>
       </c>
       <c r="AT14" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU14" t="n">
         <v>5</v>
@@ -5445,34 +5445,34 @@
         <v>0</v>
       </c>
       <c r="AY14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ14" t="n">
         <v>50</v>
       </c>
       <c r="BA14" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="BB14" t="n">
-        <v>56.25</v>
+        <v>54.545454545455</v>
       </c>
       <c r="BC14" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="BD14" t="n">
-        <v>57.954545454545</v>
+        <v>55.208333333333</v>
       </c>
       <c r="BE14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BF14" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="BG14" t="n">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="BH14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BI14" t="n">
         <v>15</v>
@@ -5481,7 +5481,7 @@
         <v>0</v>
       </c>
       <c r="BK14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BL14" t="n">
         <v>0</v>
@@ -5493,22 +5493,22 @@
         <v>1</v>
       </c>
       <c r="BO14" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BP14" t="n">
         <v>0</v>
       </c>
       <c r="BQ14" t="n">
-        <v>118.9</v>
+        <v>125.2</v>
       </c>
       <c r="BR14" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BS14" t="n">
         <v>0</v>
       </c>
       <c r="BT14" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="BU14" t="n">
         <v>0</v>
@@ -5532,7 +5532,7 @@
         <v>9</v>
       </c>
       <c r="CB14" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="CC14" t="n">
         <v>9</v>
@@ -5556,7 +5556,7 @@
         <v>0</v>
       </c>
       <c r="CJ14" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="CK14" t="n">
         <v>1</v>
@@ -5580,16 +5580,16 @@
         <v>0</v>
       </c>
       <c r="CR14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CS14" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="CT14" t="n">
         <v>6</v>
       </c>
       <c r="CU14" t="n">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="CV14" t="n">
         <v>12</v>
@@ -5610,7 +5610,7 @@
         <v>16</v>
       </c>
       <c r="DB14" t="n">
-        <v>61.538461538462</v>
+        <v>59.259259259259</v>
       </c>
       <c r="DC14" t="n">
         <v>0</v>
@@ -5622,10 +5622,10 @@
         <v>0</v>
       </c>
       <c r="DF14" t="n">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="DG14" t="n">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="DH14" t="n">
         <v>0</v>
@@ -5663,16 +5663,16 @@
         <v>1895829</v>
       </c>
       <c r="E15" t="n">
-        <v>6.625</v>
+        <v>6.62</v>
       </c>
       <c r="F15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -5727,10 +5727,10 @@
         <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.008873509999999999</v>
+        <v>0.008874959999999999</v>
       </c>
       <c r="AB15" t="n">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
@@ -5739,16 +5739,16 @@
         <v>0</v>
       </c>
       <c r="AE15" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AF15" t="n">
-        <v>82.222222222222</v>
+        <v>77.551020408163</v>
       </c>
       <c r="AG15" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="AH15" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI15" t="n">
         <v>14</v>
@@ -5781,7 +5781,7 @@
         <v>10</v>
       </c>
       <c r="AS15" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AT15" t="n">
         <v>4</v>
@@ -5808,13 +5808,13 @@
         <v>6</v>
       </c>
       <c r="BB15" t="n">
-        <v>37.5</v>
+        <v>28.571428571429</v>
       </c>
       <c r="BC15" t="n">
         <v>4</v>
       </c>
       <c r="BD15" t="n">
-        <v>36.363636363636</v>
+        <v>25</v>
       </c>
       <c r="BE15" t="n">
         <v>2</v>
@@ -5823,7 +5823,7 @@
         <v>40</v>
       </c>
       <c r="BG15" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BH15" t="n">
         <v>1</v>
@@ -5853,16 +5853,16 @@
         <v>0</v>
       </c>
       <c r="BQ15" t="n">
-        <v>26.5</v>
+        <v>33.1</v>
       </c>
       <c r="BR15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BS15" t="n">
         <v>0</v>
       </c>
       <c r="BT15" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BU15" t="n">
         <v>0</v>
@@ -5937,13 +5937,13 @@
         <v>0</v>
       </c>
       <c r="CS15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CT15" t="n">
         <v>0</v>
       </c>
       <c r="CU15" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="CV15" t="n">
         <v>3</v>
@@ -5976,16 +5976,16 @@
         <v>0</v>
       </c>
       <c r="DF15" t="n">
+        <v>25</v>
+      </c>
+      <c r="DG15" t="n">
         <v>24</v>
       </c>
-      <c r="DG15" t="n">
-        <v>21</v>
-      </c>
       <c r="DH15" t="n">
         <v>0</v>
       </c>
       <c r="DI15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DJ15" t="n">
         <v>2139417</v>
@@ -6373,16 +6373,16 @@
         <v>54308</v>
       </c>
       <c r="E17" t="n">
-        <v>6.75</v>
+        <v>6.7761904761905</v>
       </c>
       <c r="F17" t="n">
+        <v>21</v>
+      </c>
+      <c r="G17" t="n">
         <v>20</v>
       </c>
-      <c r="G17" t="n">
-        <v>19</v>
-      </c>
       <c r="H17" t="n">
-        <v>1667</v>
+        <v>1757</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -6439,10 +6439,10 @@
         <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>1.03419313</v>
+        <v>1.03658763</v>
       </c>
       <c r="AB17" t="n">
-        <v>1172</v>
+        <v>1206</v>
       </c>
       <c r="AC17" t="n">
         <v>2</v>
@@ -6451,28 +6451,28 @@
         <v>10</v>
       </c>
       <c r="AE17" t="n">
-        <v>557</v>
+        <v>572</v>
       </c>
       <c r="AF17" t="n">
-        <v>77.14681440443201</v>
+        <v>77.08894878706199</v>
       </c>
       <c r="AG17" t="n">
-        <v>722</v>
+        <v>742</v>
       </c>
       <c r="AH17" t="n">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="AI17" t="n">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="AJ17" t="n">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AK17" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AL17" t="n">
-        <v>32</v>
+        <v>33.018867924528</v>
       </c>
       <c r="AM17" t="n">
         <v>13</v>
@@ -6484,19 +6484,19 @@
         <v>26</v>
       </c>
       <c r="AP17" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AQ17" t="n">
         <v>4</v>
       </c>
       <c r="AR17" t="n">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AS17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AT17" t="n">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="AU17" t="n">
         <v>3</v>
@@ -6517,25 +6517,25 @@
         <v>52.173913043478</v>
       </c>
       <c r="BA17" t="n">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="BB17" t="n">
-        <v>57.258064516129</v>
+        <v>57.692307692308</v>
       </c>
       <c r="BC17" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="BD17" t="n">
-        <v>57.281553398058</v>
+        <v>57.547169811321</v>
       </c>
       <c r="BE17" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BF17" t="n">
-        <v>57.142857142857</v>
+        <v>58.333333333333</v>
       </c>
       <c r="BG17" t="n">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="BH17" t="n">
         <v>15</v>
@@ -6559,22 +6559,22 @@
         <v>5</v>
       </c>
       <c r="BO17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BP17" t="n">
         <v>0</v>
       </c>
       <c r="BQ17" t="n">
-        <v>135</v>
+        <v>142.3</v>
       </c>
       <c r="BR17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BS17" t="n">
         <v>0</v>
       </c>
       <c r="BT17" t="n">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="BU17" t="n">
         <v>0</v>
@@ -6601,10 +6601,10 @@
         <v>6</v>
       </c>
       <c r="CC17" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="CD17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="CE17" t="n">
         <v>0</v>
@@ -6622,7 +6622,7 @@
         <v>0</v>
       </c>
       <c r="CJ17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="CK17" t="n">
         <v>1</v>
@@ -6655,10 +6655,10 @@
         <v>53</v>
       </c>
       <c r="CU17" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="CV17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CW17" t="n">
         <v>0</v>
@@ -6670,13 +6670,13 @@
         <v>0</v>
       </c>
       <c r="CZ17" t="n">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="DA17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="DB17" t="n">
-        <v>59.375</v>
+        <v>58.823529411765</v>
       </c>
       <c r="DC17" t="n">
         <v>0</v>
@@ -6688,16 +6688,16 @@
         <v>0</v>
       </c>
       <c r="DF17" t="n">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="DG17" t="n">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="DH17" t="n">
         <v>0</v>
       </c>
       <c r="DI17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="DJ17" t="n">
         <v>2169463</v>
@@ -6729,16 +6729,16 @@
         <v>1035988</v>
       </c>
       <c r="E18" t="n">
-        <v>7.0105263157895</v>
+        <v>6.81</v>
       </c>
       <c r="F18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H18" t="n">
-        <v>1636</v>
+        <v>1638</v>
       </c>
       <c r="I18" t="n">
         <v>2</v>
@@ -6750,7 +6750,7 @@
         <v>0.3599</v>
       </c>
       <c r="L18" t="n">
-        <v>1636</v>
+        <v>1638</v>
       </c>
       <c r="M18" t="n">
         <v>6</v>
@@ -6876,13 +6876,13 @@
         <v>89</v>
       </c>
       <c r="BB18" t="n">
-        <v>58.169934640523</v>
+        <v>57.792207792208</v>
       </c>
       <c r="BC18" t="n">
         <v>54</v>
       </c>
       <c r="BD18" t="n">
-        <v>58.064516129032</v>
+        <v>57.446808510638</v>
       </c>
       <c r="BE18" t="n">
         <v>35</v>
@@ -6894,7 +6894,7 @@
         <v>146</v>
       </c>
       <c r="BH18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BI18" t="n">
         <v>28</v>
@@ -6906,7 +6906,7 @@
         <v>3</v>
       </c>
       <c r="BL18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM18" t="n">
         <v>0</v>
@@ -6921,10 +6921,10 @@
         <v>0</v>
       </c>
       <c r="BQ18" t="n">
-        <v>133.2</v>
+        <v>136.2</v>
       </c>
       <c r="BR18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BS18" t="n">
         <v>2</v>
@@ -6933,7 +6933,7 @@
         <v>129</v>
       </c>
       <c r="BU18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV18" t="n">
         <v>1</v>
@@ -7011,7 +7011,7 @@
         <v>1</v>
       </c>
       <c r="CU18" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="CV18" t="n">
         <v>25</v>
@@ -7441,16 +7441,16 @@
         <v>1824137</v>
       </c>
       <c r="E20" t="n">
-        <v>6.9333333333333</v>
+        <v>6.875</v>
       </c>
       <c r="F20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -7507,10 +7507,10 @@
         <v>0</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.04773301</v>
+        <v>0.04773876</v>
       </c>
       <c r="AB20" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AC20" t="n">
         <v>0</v>
@@ -7519,16 +7519,16 @@
         <v>1</v>
       </c>
       <c r="AE20" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF20" t="n">
-        <v>80.555555555556</v>
+        <v>81.081081081081</v>
       </c>
       <c r="AG20" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AH20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI20" t="n">
         <v>11</v>
@@ -7564,7 +7564,7 @@
         <v>1</v>
       </c>
       <c r="AT20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -7633,10 +7633,10 @@
         <v>0</v>
       </c>
       <c r="BQ20" t="n">
-        <v>20.8</v>
+        <v>27.5</v>
       </c>
       <c r="BR20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BS20" t="n">
         <v>0</v>
@@ -7756,7 +7756,7 @@
         <v>0</v>
       </c>
       <c r="DF20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="DG20" t="n">
         <v>16</v>
@@ -7797,16 +7797,16 @@
         <v>1397882</v>
       </c>
       <c r="E21" t="n">
-        <v>6.5105263157895</v>
+        <v>6.51</v>
       </c>
       <c r="F21" t="n">
+        <v>20</v>
+      </c>
+      <c r="G21" t="n">
         <v>19</v>
       </c>
-      <c r="G21" t="n">
-        <v>18</v>
-      </c>
       <c r="H21" t="n">
-        <v>1550</v>
+        <v>1640</v>
       </c>
       <c r="I21" t="n">
         <v>1</v>
@@ -7863,64 +7863,64 @@
         <v>1</v>
       </c>
       <c r="AA21" t="n">
-        <v>1.44559799</v>
+        <v>1.44833957</v>
       </c>
       <c r="AB21" t="n">
-        <v>1149</v>
+        <v>1216</v>
       </c>
       <c r="AC21" t="n">
         <v>3</v>
       </c>
       <c r="AD21" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE21" t="n">
-        <v>493</v>
+        <v>520</v>
       </c>
       <c r="AF21" t="n">
-        <v>76.91107644305799</v>
+        <v>76.80945347119599</v>
       </c>
       <c r="AG21" t="n">
-        <v>641</v>
+        <v>677</v>
       </c>
       <c r="AH21" t="n">
-        <v>290</v>
+        <v>314</v>
       </c>
       <c r="AI21" t="n">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AJ21" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AK21" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AL21" t="n">
-        <v>39.63963963964</v>
+        <v>39.655172413793</v>
       </c>
       <c r="AM21" t="n">
         <v>26</v>
       </c>
       <c r="AN21" t="n">
-        <v>20.15503875969</v>
+        <v>20</v>
       </c>
       <c r="AO21" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AP21" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AQ21" t="n">
         <v>7</v>
       </c>
       <c r="AR21" t="n">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AS21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AT21" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AU21" t="n">
         <v>5</v>
@@ -7935,34 +7935,34 @@
         <v>0</v>
       </c>
       <c r="AY21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ21" t="n">
-        <v>41.935483870968</v>
+        <v>41.176470588235</v>
       </c>
       <c r="BA21" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="BB21" t="n">
-        <v>45.801526717557</v>
+        <v>45.070422535211</v>
       </c>
       <c r="BC21" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="BD21" t="n">
-        <v>47.663551401869</v>
+        <v>47.008547008547</v>
       </c>
       <c r="BE21" t="n">
         <v>9</v>
       </c>
       <c r="BF21" t="n">
-        <v>37.5</v>
+        <v>36</v>
       </c>
       <c r="BG21" t="n">
-        <v>331</v>
+        <v>350</v>
       </c>
       <c r="BH21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BI21" t="n">
         <v>15</v>
@@ -7983,22 +7983,22 @@
         <v>2</v>
       </c>
       <c r="BO21" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BP21" t="n">
         <v>0</v>
       </c>
       <c r="BQ21" t="n">
-        <v>123.7</v>
+        <v>130.2</v>
       </c>
       <c r="BR21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BS21" t="n">
         <v>1</v>
       </c>
       <c r="BT21" t="n">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="BU21" t="n">
         <v>0</v>
@@ -8022,13 +8022,13 @@
         <v>10</v>
       </c>
       <c r="CB21" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="CC21" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="CD21" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="CE21" t="n">
         <v>0</v>
@@ -8046,43 +8046,43 @@
         <v>0</v>
       </c>
       <c r="CJ21" t="n">
+        <v>25</v>
+      </c>
+      <c r="CK21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR21" t="n">
         <v>24</v>
       </c>
-      <c r="CK21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR21" t="n">
-        <v>23</v>
-      </c>
       <c r="CS21" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="CT21" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="CU21" t="n">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="CV21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="CW21" t="n">
         <v>0</v>
@@ -8094,13 +8094,13 @@
         <v>0</v>
       </c>
       <c r="CZ21" t="n">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="DA21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="DB21" t="n">
-        <v>62.5</v>
+        <v>62.962962962963</v>
       </c>
       <c r="DC21" t="n">
         <v>0</v>
@@ -8112,10 +8112,10 @@
         <v>0</v>
       </c>
       <c r="DF21" t="n">
-        <v>328</v>
+        <v>356</v>
       </c>
       <c r="DG21" t="n">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="DH21" t="n">
         <v>0</v>
@@ -8507,19 +8507,19 @@
         <v>287887</v>
       </c>
       <c r="E23" t="n">
-        <v>7.0166666666667</v>
+        <v>7.0578947368421</v>
       </c>
       <c r="F23" t="n">
+        <v>19</v>
+      </c>
+      <c r="G23" t="n">
         <v>18</v>
       </c>
-      <c r="G23" t="n">
-        <v>17</v>
-      </c>
       <c r="H23" t="n">
-        <v>1437</v>
+        <v>1527</v>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J23" t="n">
         <v>1</v>
@@ -8528,7 +8528,7 @@
         <v>0.7523</v>
       </c>
       <c r="L23" t="n">
-        <v>1437</v>
+        <v>1527</v>
       </c>
       <c r="M23" t="n">
         <v>7</v>
@@ -8573,10 +8573,10 @@
         <v>1</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.26264158</v>
+        <v>0.26361904</v>
       </c>
       <c r="AB23" t="n">
-        <v>1129</v>
+        <v>1196</v>
       </c>
       <c r="AC23" t="n">
         <v>1</v>
@@ -8585,28 +8585,28 @@
         <v>3</v>
       </c>
       <c r="AE23" t="n">
-        <v>856</v>
+        <v>894</v>
       </c>
       <c r="AF23" t="n">
-        <v>92.640692640693</v>
+        <v>92.26006191950501</v>
       </c>
       <c r="AG23" t="n">
-        <v>924</v>
+        <v>969</v>
       </c>
       <c r="AH23" t="n">
-        <v>620</v>
+        <v>654</v>
       </c>
       <c r="AI23" t="n">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="AJ23" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK23" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="AL23" t="n">
-        <v>54.21686746988</v>
+        <v>53.260869565217</v>
       </c>
       <c r="AM23" t="n">
         <v>0</v>
@@ -8615,22 +8615,22 @@
         <v>0</v>
       </c>
       <c r="AO23" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AP23" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AQ23" t="n">
         <v>1</v>
       </c>
       <c r="AR23" t="n">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="AS23" t="n">
         <v>6</v>
       </c>
       <c r="AT23" t="n">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="AU23" t="n">
         <v>1</v>
@@ -8651,25 +8651,25 @@
         <v>100</v>
       </c>
       <c r="BA23" t="n">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="BB23" t="n">
-        <v>64.102564102564</v>
+        <v>65.853658536585</v>
       </c>
       <c r="BC23" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="BD23" t="n">
-        <v>55.932203389831</v>
+        <v>58.064516129032</v>
       </c>
       <c r="BE23" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="BF23" t="n">
-        <v>72.413793103448</v>
+        <v>73.770491803279</v>
       </c>
       <c r="BG23" t="n">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="BH23" t="n">
         <v>20</v>
@@ -8693,22 +8693,22 @@
         <v>4</v>
       </c>
       <c r="BO23" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BP23" t="n">
         <v>0</v>
       </c>
       <c r="BQ23" t="n">
-        <v>126.3</v>
+        <v>134.1</v>
       </c>
       <c r="BR23" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BS23" t="n">
         <v>2</v>
       </c>
       <c r="BT23" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="BU23" t="n">
         <v>1</v>
@@ -8735,10 +8735,10 @@
         <v>4</v>
       </c>
       <c r="CC23" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="CD23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="CE23" t="n">
         <v>1</v>
@@ -8756,7 +8756,7 @@
         <v>0</v>
       </c>
       <c r="CJ23" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="CK23" t="n">
         <v>0</v>
@@ -8804,13 +8804,13 @@
         <v>0</v>
       </c>
       <c r="CZ23" t="n">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="DA23" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="DB23" t="n">
-        <v>50</v>
+        <v>56.521739130435</v>
       </c>
       <c r="DC23" t="n">
         <v>0</v>
@@ -8822,10 +8822,10 @@
         <v>0</v>
       </c>
       <c r="DF23" t="n">
-        <v>638</v>
+        <v>674</v>
       </c>
       <c r="DG23" t="n">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="DH23" t="n">
         <v>4</v>
@@ -8863,16 +8863,16 @@
         <v>2073555</v>
       </c>
       <c r="E24" t="n">
-        <v>6.9666666666667</v>
+        <v>7.05</v>
       </c>
       <c r="F24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H24" t="n">
-        <v>244</v>
+        <v>328</v>
       </c>
       <c r="I24" t="n">
         <v>1</v>
@@ -8884,7 +8884,7 @@
         <v>0.0722</v>
       </c>
       <c r="L24" t="n">
-        <v>244</v>
+        <v>328</v>
       </c>
       <c r="M24" t="n">
         <v>1</v>
@@ -8929,10 +8929,10 @@
         <v>0</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.01794844</v>
+        <v>0.01880576</v>
       </c>
       <c r="AB24" t="n">
-        <v>152</v>
+        <v>189</v>
       </c>
       <c r="AC24" t="n">
         <v>0</v>
@@ -8941,28 +8941,28 @@
         <v>1</v>
       </c>
       <c r="AE24" t="n">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="AF24" t="n">
-        <v>88.235294117647</v>
+        <v>89.20863309352499</v>
       </c>
       <c r="AG24" t="n">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="AH24" t="n">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="AI24" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="AJ24" t="n">
         <v>11</v>
       </c>
       <c r="AK24" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AL24" t="n">
-        <v>37.5</v>
+        <v>42.105263157895</v>
       </c>
       <c r="AM24" t="n">
         <v>0</v>
@@ -8974,7 +8974,7 @@
         <v>1</v>
       </c>
       <c r="AP24" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AQ24" t="n">
         <v>0</v>
@@ -8986,7 +8986,7 @@
         <v>1</v>
       </c>
       <c r="AT24" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AU24" t="n">
         <v>0</v>
@@ -9007,25 +9007,25 @@
         <v>66.666666666667</v>
       </c>
       <c r="BA24" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BB24" t="n">
-        <v>42.105263157895</v>
+        <v>50</v>
       </c>
       <c r="BC24" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BD24" t="n">
-        <v>60</v>
+        <v>64.28571428571399</v>
       </c>
       <c r="BE24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BF24" t="n">
-        <v>22.222222222222</v>
+        <v>33.333333333333</v>
       </c>
       <c r="BG24" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="BH24" t="n">
         <v>4</v>
@@ -9049,70 +9049,70 @@
         <v>0</v>
       </c>
       <c r="BO24" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ24" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="BR24" t="n">
+        <v>4</v>
+      </c>
+      <c r="BS24" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT24" t="n">
+        <v>15</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ24" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB24" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC24" t="n">
+        <v>8</v>
+      </c>
+      <c r="CD24" t="n">
+        <v>4</v>
+      </c>
+      <c r="CE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ24" t="n">
         <v>2</v>
-      </c>
-      <c r="BP24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ24" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="BR24" t="n">
-        <v>3</v>
-      </c>
-      <c r="BS24" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT24" t="n">
-        <v>14</v>
-      </c>
-      <c r="BU24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ24" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC24" t="n">
-        <v>5</v>
-      </c>
-      <c r="CD24" t="n">
-        <v>2</v>
-      </c>
-      <c r="CE24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ24" t="n">
-        <v>1</v>
       </c>
       <c r="CK24" t="n">
         <v>1</v>
@@ -9145,10 +9145,10 @@
         <v>0</v>
       </c>
       <c r="CU24" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="CV24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CW24" t="n">
         <v>0</v>
@@ -9160,13 +9160,13 @@
         <v>0</v>
       </c>
       <c r="CZ24" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="DA24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="DB24" t="n">
-        <v>50</v>
+        <v>57.142857142857</v>
       </c>
       <c r="DC24" t="n">
         <v>0</v>
@@ -9178,16 +9178,16 @@
         <v>0</v>
       </c>
       <c r="DF24" t="n">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="DG24" t="n">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="DH24" t="n">
         <v>0</v>
       </c>
       <c r="DI24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="DJ24" t="n">
         <v>2410693</v>
@@ -9219,16 +9219,16 @@
         <v>599192</v>
       </c>
       <c r="E25" t="n">
-        <v>7.3</v>
+        <v>7.825</v>
       </c>
       <c r="F25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G25" t="n">
         <v>3</v>
       </c>
       <c r="H25" t="n">
-        <v>270</v>
+        <v>315</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -9283,10 +9283,10 @@
         <v>0</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.00424446</v>
+        <v>0.00462319</v>
       </c>
       <c r="AB25" t="n">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="AC25" t="n">
         <v>0</v>
@@ -9295,28 +9295,28 @@
         <v>0</v>
       </c>
       <c r="AE25" t="n">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="AF25" t="n">
-        <v>73.07692307692299</v>
+        <v>69.127516778523</v>
       </c>
       <c r="AG25" t="n">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="AH25" t="n">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="AI25" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AJ25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK25" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="AL25" t="n">
-        <v>42.622950819672</v>
+        <v>40.25974025974</v>
       </c>
       <c r="AM25" t="n">
         <v>0</v>
@@ -9334,13 +9334,13 @@
         <v>0</v>
       </c>
       <c r="AR25" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="AS25" t="n">
         <v>0</v>
       </c>
       <c r="AT25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU25" t="n">
         <v>0</v>
@@ -9379,7 +9379,7 @@
         <v>100</v>
       </c>
       <c r="BG25" t="n">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="BH25" t="n">
         <v>0</v>
@@ -9397,7 +9397,7 @@
         <v>0</v>
       </c>
       <c r="BM25" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BN25" t="n">
         <v>1</v>
@@ -9409,16 +9409,16 @@
         <v>0</v>
       </c>
       <c r="BQ25" t="n">
-        <v>21.9</v>
+        <v>31.3</v>
       </c>
       <c r="BR25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BS25" t="n">
         <v>0</v>
       </c>
       <c r="BT25" t="n">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="BU25" t="n">
         <v>0</v>
@@ -9460,10 +9460,10 @@
         <v>0</v>
       </c>
       <c r="CH25" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="CI25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CJ25" t="n">
         <v>2</v>
@@ -9472,7 +9472,7 @@
         <v>0</v>
       </c>
       <c r="CL25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CM25" t="n">
         <v>2</v>
@@ -9514,31 +9514,31 @@
         <v>0</v>
       </c>
       <c r="CZ25" t="n">
+        <v>77</v>
+      </c>
+      <c r="DA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE25" t="n">
+        <v>5</v>
+      </c>
+      <c r="DF25" t="n">
+        <v>88</v>
+      </c>
+      <c r="DG25" t="n">
         <v>61</v>
       </c>
-      <c r="DA25" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB25" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC25" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD25" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE25" t="n">
-        <v>4</v>
-      </c>
-      <c r="DF25" t="n">
-        <v>83</v>
-      </c>
-      <c r="DG25" t="n">
-        <v>47</v>
-      </c>
       <c r="DH25" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="DI25" t="n">
         <v>0</v>
@@ -9552,7 +9552,7 @@
         </is>
       </c>
       <c r="DL25" t="n">
-        <v>0.9594</v>
+        <v>2.3415</v>
       </c>
     </row>
     <row r="26">
@@ -9575,16 +9575,16 @@
         <v>580226</v>
       </c>
       <c r="E26" t="n">
-        <v>6.8588235294118</v>
+        <v>6.8944444444444</v>
       </c>
       <c r="F26" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G26" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H26" t="n">
-        <v>1530</v>
+        <v>1575</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -9639,10 +9639,10 @@
         <v>1</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.03302775</v>
+        <v>0.03510363</v>
       </c>
       <c r="AB26" t="n">
-        <v>744</v>
+        <v>776</v>
       </c>
       <c r="AC26" t="n">
         <v>1</v>
@@ -9651,28 +9651,28 @@
         <v>3</v>
       </c>
       <c r="AE26" t="n">
-        <v>403</v>
+        <v>418</v>
       </c>
       <c r="AF26" t="n">
-        <v>73.40619307832399</v>
+        <v>72.695652173913</v>
       </c>
       <c r="AG26" t="n">
-        <v>549</v>
+        <v>575</v>
       </c>
       <c r="AH26" t="n">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="AI26" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AJ26" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AK26" t="n">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="AL26" t="n">
-        <v>42.738589211618</v>
+        <v>42.1875</v>
       </c>
       <c r="AM26" t="n">
         <v>0</v>
@@ -9690,7 +9690,7 @@
         <v>0</v>
       </c>
       <c r="AR26" t="n">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="AS26" t="n">
         <v>1</v>
@@ -9717,31 +9717,31 @@
         <v>0</v>
       </c>
       <c r="BA26" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BB26" t="n">
-        <v>87.5</v>
+        <v>90</v>
       </c>
       <c r="BC26" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>83.333333333333</v>
+      </c>
+      <c r="BE26" t="n">
         <v>4</v>
-      </c>
-      <c r="BD26" t="n">
-        <v>80</v>
-      </c>
-      <c r="BE26" t="n">
-        <v>3</v>
       </c>
       <c r="BF26" t="n">
         <v>100</v>
       </c>
       <c r="BG26" t="n">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="BH26" t="n">
         <v>0</v>
       </c>
       <c r="BI26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BJ26" t="n">
         <v>0</v>
@@ -9753,28 +9753,28 @@
         <v>0</v>
       </c>
       <c r="BM26" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="BN26" t="n">
         <v>5</v>
       </c>
       <c r="BO26" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BP26" t="n">
         <v>0</v>
       </c>
       <c r="BQ26" t="n">
-        <v>116.6</v>
+        <v>124.1</v>
       </c>
       <c r="BR26" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BS26" t="n">
         <v>1</v>
       </c>
       <c r="BT26" t="n">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="BU26" t="n">
         <v>0</v>
@@ -9801,10 +9801,10 @@
         <v>0</v>
       </c>
       <c r="CC26" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="CD26" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="CE26" t="n">
         <v>0</v>
@@ -9816,13 +9816,13 @@
         <v>3</v>
       </c>
       <c r="CH26" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="CI26" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="CJ26" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="CK26" t="n">
         <v>1</v>
@@ -9870,7 +9870,7 @@
         <v>0</v>
       </c>
       <c r="CZ26" t="n">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="DA26" t="n">
         <v>0</v>
@@ -9888,13 +9888,13 @@
         <v>6</v>
       </c>
       <c r="DF26" t="n">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="DG26" t="n">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="DH26" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="DI26" t="n">
         <v>0</v>
@@ -9908,7 +9908,7 @@
         </is>
       </c>
       <c r="DL26" t="n">
-        <v>-3.5508</v>
+        <v>-3.382</v>
       </c>
     </row>
     <row r="27">
